--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>822.74589764187</v>
+        <v>1095.520839222413</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.84392883905826</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.668113199446429</v>
+        <v>8.951113551215126</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.390082002251396</v>
+        <v>8.926455063461642</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>641.7700000000068</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.41</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -918,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.07354493653836</v>
+        <v>21.04888644878487</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.66154480832267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -974,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1034,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1048,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1062,13 +1073,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1076,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1093,10 +1104,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1107,10 +1118,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1121,12 +1132,40 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1229,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -1240,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1251,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1262,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1273,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>195.8750000000004</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1295,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>207.25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1306,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>211.4650000000004</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1317,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>216.1350000000004</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1328,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>208.9200000000004</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -1339,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>251.8700000000011</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -1350,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>265.65</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>268.4700000000012</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1372,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>269.9950000000011</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -1383,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>264.9</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1394,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>119.3649999999998</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1405,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>131.3249999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1416,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>122.1899999999998</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1427,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>129.5699999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1438,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>130.3899999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1449,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1460,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1471,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1482,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1493,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1504,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1515,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1526,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1537,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1548,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1559,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -1570,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1581,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -1592,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
@@ -1603,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
@@ -1614,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>251.8700000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1625,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>265.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1636,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>268.4700000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1647,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>269.9950000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1658,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>264.9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1771,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1782,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -1793,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -1804,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -1815,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>51.87000000000114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1826,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>65.64999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1837,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>68.47000000000116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1848,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>69.99500000000114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1859,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>64.89999999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1972,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1983,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1994,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2005,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2071,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2082,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2104,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2115,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2126,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2137,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2148,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2159,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2170,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2211,10 +2250,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2222,10 +2261,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2233,10 +2272,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2244,10 +2283,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2255,10 +2294,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2269,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2280,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2291,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2302,9 +2341,20 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
